--- a/Results/attack success mechanism/unrestricted/verb_analysis.xlsx
+++ b/Results/attack success mechanism/unrestricted/verb_analysis.xlsx
@@ -619,7 +619,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="5" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" customWidth="1"/>
